--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,7 +141,7 @@
     <t>CT-CTA</t>
   </si>
   <si>
-    <t>Computed Tomography (CT) and CT Angiography (CTA)</t>
+    <t>CT + CT Angiography. Use when recorded as a combined protocol and not decomposed into separate procedure entries.</t>
   </si>
   <si>
     <t>ct-cta-perfusion</t>
@@ -150,7 +150,7 @@
     <t>CT-CTA and Perfusion</t>
   </si>
   <si>
-    <t>Computed Tomography (CT), CT Angiography (CTA), and CT Perfusion</t>
+    <t>CT + CTA + CT Perfusion. Often used for penumbra/mismatch-based selection in acute stroke.</t>
   </si>
   <si>
     <t>mr-dwi-flair</t>
@@ -159,7 +159,7 @@
     <t>MR DWI-FLAIR</t>
   </si>
   <si>
-    <t>Magnetic Resonance Imaging (MRI) with Diffusion-Weighted Imaging (DWI) or Fluid-Attenuated Inversion Recovery (FLAIR)</t>
+    <t>MRI with DWI and/or FLAIR. Supports imaging-based estimates of lesion age and tissue characterization.</t>
   </si>
   <si>
     <t>mr-dwi-flair-mra</t>
@@ -168,7 +168,7 @@
     <t>MR DWI-FLAIR and MRA</t>
   </si>
   <si>
-    <t>Magnetic Resonance Imaging (MRI) with Diffusion-Weighted Imaging (DWI) or Fluid-Attenuated Inversion Recovery (FLAIR), and Magnetic Resonance Angiography (MRA)</t>
+    <t>MRI (DWI/FLAIR) + MRA. Represents combined parenchymal and vascular assessment.</t>
   </si>
   <si>
     <t>mr-dwi-flair-mra-perfusion</t>
@@ -177,7 +177,7 @@
     <t>MR DWI-FLAIR, MRA, and Perfusion</t>
   </si>
   <si>
-    <t>Magnetic Resonance Imaging (MRI) with Diffusion-Weighted Imaging (DWI) and Fluid-Attenuated Inversion Recovery (FLAIR), Magnetic Resonance Angiography (MRA), and MR Perfusion</t>
+    <t>MRI (DWI/FLAIR) + MRA + perfusion. Represents advanced tissue and vessel evaluation.</t>
   </si>
 </sst>
 </file>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Brain Imaging Type Code System</t>
+    <t>Brain Imaging Type CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codes specifying the type of brain imaging performed (e.g., CT, MRI).</t>
+    <t>This local CodeSystem defines codes for **brain imaging protocol bundles** commonly used in acute stroke, such as CT+CTA+perfusion.
+**When to use**
+- The source system reports the study as a combined protocol (e.g., "CT/CTA/CTP") without individual modality breakdown.
+- You need a stable code for quality indicators and cohort definitions (e.g., “patients who had CT+CTA+perfusion”).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-brain-imaging-type-cs.xlsx
+++ b/CodeSystem-brain-imaging-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
